--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CNN_Car_Classification\CNN_Car_Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A628890-454B-4415-9D32-1E019E24D52F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B552A-2753-49DC-B4AB-F4B63BBE12E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="28800" windowHeight="11505" xr2:uid="{DA055BED-F253-4867-A05A-E5ABA0A5842B}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="11505" xr2:uid="{DA055BED-F253-4867-A05A-E5ABA0A5842B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,72 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>VGG19</t>
-  </si>
-  <si>
-    <t>Layer (type)                 Output Shape              Param #   
-=================================================================
-input_1 (InputLayer)         (None, 224, 224, 3)       0         
-_________________________________________________________________
-block1_conv1 (Conv2D)        (None, 224, 224, 64)      1792      
-_________________________________________________________________
-block1_conv2 (Conv2D)        (None, 224, 224, 64)      36928     
-_________________________________________________________________
-block1_pool (MaxPooling2D)   (None, 112, 112, 64)      0         
-_________________________________________________________________
-block2_conv1 (Conv2D)        (None, 112, 112, 128)     73856     
-_________________________________________________________________
-block2_conv2 (Conv2D)        (None, 112, 112, 128)     147584    
-_________________________________________________________________
-block2_pool (MaxPooling2D)   (None, 56, 56, 128)       0         
-_________________________________________________________________
-block3_conv1 (Conv2D)        (None, 56, 56, 256)       295168    
-_________________________________________________________________
-block3_conv2 (Conv2D)        (None, 56, 56, 256)       590080    
-_________________________________________________________________
-block3_conv3 (Conv2D)        (None, 56, 56, 256)       590080    
-_________________________________________________________________
-block3_conv4 (Conv2D)        (None, 56, 56, 256)       590080    
-_________________________________________________________________
-block3_pool (MaxPooling2D)   (None, 28, 28, 256)       0         
-_________________________________________________________________
-block4_conv1 (Conv2D)        (None, 28, 28, 512)       1180160   
-_________________________________________________________________
-block4_conv2 (Conv2D)        (None, 28, 28, 512)       2359808   
-_________________________________________________________________
-block4_conv3 (Conv2D)        (None, 28, 28, 512)       2359808   
-_________________________________________________________________
-block4_conv4 (Conv2D)        (None, 28, 28, 512)       2359808   
-_________________________________________________________________
-block4_pool (MaxPooling2D)   (None, 14, 14, 512)       0         
-_________________________________________________________________
-block5_conv1 (Conv2D)        (None, 14, 14, 512)       2359808   
-_________________________________________________________________
-block5_conv2 (Conv2D)        (None, 14, 14, 512)       2359808   
-_________________________________________________________________
-block5_conv3 (Conv2D)        (None, 14, 14, 512)       2359808   
-_________________________________________________________________
-block5_conv4 (Conv2D)        (None, 14, 14, 512)       2359808   
-_________________________________________________________________
-block5_pool (MaxPooling2D)   (None, 7, 7, 512)         0         
-_________________________________________________________________
-avg_pool (GlobalAveragePooli (None, 512)               0         
-_________________________________________________________________
-fc1 (Dense)                  (None, 256)               131328    
-_________________________________________________________________
-dropout (Dropout)            (None, 256)               0         
-_________________________________________________________________
-predictions (Dense)          (None, 10)                2570      
-=================================================================
-Total params: 20,158,282
-Trainable params: 133,898
-Non-trainable params: 20,024,384</t>
-  </si>
-  <si>
-    <t>Validation accuracy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>id1</t>
   </si>
@@ -104,15 +39,9 @@
     <t>id2</t>
   </si>
   <si>
-    <t>last 6 layers trainable</t>
-  </si>
-  <si>
     <t>id3</t>
   </si>
   <si>
-    <t>fully train</t>
-  </si>
-  <si>
     <t>id4</t>
   </si>
   <si>
@@ -122,32 +51,65 @@
     <t>id5</t>
   </si>
   <si>
-    <t>last 15 layers trainable</t>
-  </si>
-  <si>
     <t>id6</t>
   </si>
   <si>
-    <t>last 30 layers trainable</t>
-  </si>
-  <si>
     <t>id7</t>
   </si>
   <si>
-    <t>last 45 layers trainable</t>
-  </si>
-  <si>
     <t>id8</t>
   </si>
   <si>
-    <t>last 90 layers trainable</t>
+    <t>id9</t>
+  </si>
+  <si>
+    <t>vgg19</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>last 6 layer trainable</t>
+  </si>
+  <si>
+    <t>all layers trainable</t>
+  </si>
+  <si>
+    <t>train from scratch</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>last 10 layers trainable</t>
+  </si>
+  <si>
+    <t>last 40 layers trainable</t>
+  </si>
+  <si>
+    <t>id10</t>
+  </si>
+  <si>
+    <t>inceptionV3</t>
+  </si>
+  <si>
+    <t>id11</t>
+  </si>
+  <si>
+    <t>id12</t>
+  </si>
+  <si>
+    <t>id13</t>
+  </si>
+  <si>
+    <t>id14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,18 +120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303F9F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -194,19 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,135 +462,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8677613-DA01-4D2D-80E3-F848421B679A}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B612B-91A3-4621-ADE6-2C00BED3E69F}">
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.55583126565658703</v>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.59305210799792196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.59801488848537099</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.60794044716778195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.63027295418471896</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.677419355726123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.33746898240841899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.41439205896173997</v>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.17369726987985401</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.40942927980541199</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.69230769215978905</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.49131513632852403</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.68238213384713398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.11414392059553299</v>
+      <c r="D10" s="1">
+        <v>0.62531017325356297</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.645161289878873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.10173697274169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.60297766801145403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.60794044753753795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.64764267871752501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.60794044716778195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.275434242584569</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CNN_Car_Classification\CNN_Car_Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifengbu/Desktop/cnn_car_classification/CNN_Car_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B552A-2753-49DC-B4AB-F4B63BBE12E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="11505" xr2:uid="{DA055BED-F253-4867-A05A-E5ABA0A5842B}"/>
+    <workbookView xWindow="-31300" yWindow="620" windowWidth="25600" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>id1</t>
   </si>
@@ -103,12 +102,24 @@
   </si>
   <si>
     <t>id14</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Framwork</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Validation accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,21 +473,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B612B-91A3-4621-ADE6-2C00BED3E69F}">
-  <dimension ref="A3:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -490,7 +515,7 @@
         <v>0.59305210799792196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -504,7 +529,7 @@
         <v>0.60794044716778195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -518,7 +543,7 @@
         <v>0.677419355726123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -532,143 +557,143 @@
         <v>0.17369726987985401</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.69230769215978905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>0.69230769215978905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.68238213384713398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>0.68238213384713398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.62531017325356297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>0.62531017325356297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.645161289878873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>0.645161289878873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.10173697274169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>0.10173697274169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.60297766801145403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.60794044753753795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
-        <v>0.60297766801145403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.64764267871752501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.60794044753753795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.60794044716778195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.64764267871752501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.60794044716778195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
         <v>0.275434242584569</v>
       </c>
     </row>
